--- a/数据整理/stocks/港股/01109-华润置地.xlsx
+++ b/数据整理/stocks/港股/01109-华润置地.xlsx
@@ -451,435 +451,585 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>008131</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>102.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5856</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>010104</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>景顺长城消费精选混合A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>52.33</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.29</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6680</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008712</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城品质成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6275</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4429</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>70.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9800</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>64.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6437</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5659</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>63.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4125</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>202801</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方全球精选配置(QDII-FOF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>29.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>31.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2692</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方香港优选股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>96.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>010105</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>景顺长城消费精选混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>52.33</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>3.29</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006816</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>160125</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方香港优选股票QDII-LOF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>92.88</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006816</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泰康中证港股通地产指数A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006817</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>92.44</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>6.23</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006817</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>泰康中证港股通地产指数C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>6.23</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006205</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇添富沪港深优势精选定期开放混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>96.70</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000979</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>景顺长城沪港深精选股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>82.45</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008060</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>景顺长城价值边际灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>63.61</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008850</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>64.30</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005504</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>汇添富沪港深大盘价值混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>91.36</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008131</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>景顺长城竞争优势混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>75.58</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008712</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>景顺长城品质成长混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>93.08</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>202801</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>南方全球精选配置(QDII-FOF)</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>31.37</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009098</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>景顺长城价值领航两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>70.46</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -889,7 +1039,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -910,15 +1060,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000979</t>
+          <t>008131</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城沪港深精选股票</t>
+          <t>景顺长城竞争优势混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>83.92</t>
+          <t>59.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9058</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -958,25 +1128,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008060</t>
+          <t>005847</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城价值边际灵活配置混合</t>
+          <t>富国沪港深业绩驱动混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>77.74</t>
+          <t>95.34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>73.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7850</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>457001</t>
+          <t>001605</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国富亚洲机会股票 (QDII)</t>
+          <t>富兰克林国海沪港深成长精选股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>88.07</t>
+          <t>113.25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4122</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008850</t>
+          <t>010104</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+          <t>景顺长城消费精选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>70.29</t>
+          <t>37.38</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3662</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001371</t>
+          <t>010027</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国沪港深价值精选灵活配置混合A</t>
+          <t>景顺长城核心中景一年持有期混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>75.84</t>
+          <t>73.27</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2274</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1070,25 +1280,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011131</t>
+          <t>001371</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国沪港深价值精选灵活配置混合C</t>
+          <t>富国沪港深价值精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>104.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>75.84</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1.86</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9430</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005228</t>
+          <t>008712</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇添富港股通专注成长混合</t>
+          <t>景顺长城品质成长混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>86.95</t>
+          <t>26.16</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7109</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005504</t>
+          <t>000979</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇添富沪港深大盘价值混合</t>
+          <t>景顺长城沪港深精选股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.55</t>
+          <t>24.44</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>83.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2024</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>202801</t>
+          <t>010583</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>南方全球精选配置(QDII-FOF)</t>
+          <t>富国蓝筹精选股票（QDII）美元</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30.74</t>
+          <t>29.59</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1599</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009846</t>
+          <t>007455</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富兰克林国海港股通远见价值混合</t>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>86.79</t>
+          <t>29.59</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1599</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006205</t>
+          <t>009098</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>汇添富沪港深优势精选定期开放混合</t>
+          <t>景顺长城价值领航两年持有期混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.54</t>
+          <t>22.94</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
+          <t>69.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1562</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010027</t>
+          <t>006370</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>景顺长城核心中景一年持有期混合</t>
+          <t>国富大中华精选混合QDII美元</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>90.30</t>
+          <t>39.97</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0192</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010104</t>
+          <t>000934</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>景顺长城消费精选混合A</t>
+          <t>国富大中华精选混合QDII</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>90.60</t>
+          <t>39.97</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>6.33</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0192</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010105</t>
+          <t>009846</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>景顺长城消费精选混合C</t>
+          <t>富兰克林国海港股通远见价值混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>90.60</t>
+          <t>29.94</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6.33</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
+          <t>86.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7994</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>006370</t>
+          <t>008850</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>国富大中华精选混合QDII美元</t>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>83.82</t>
+          <t>17.34</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
+          <t>70.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7612</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>000934</t>
+          <t>005504</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>国富大中华精选混合QDII</t>
+          <t>汇添富沪港深大盘价值混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>83.82</t>
+          <t>14.01</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6150</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>006816</t>
+          <t>008060</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>泰康中证港股通地产指数A</t>
+          <t>景顺长城价值边际灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>9.93</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6.51</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>2</v>
+          <t>77.74</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4866</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>006817</t>
+          <t>005228</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>泰康中证港股通地产指数C</t>
+          <t>汇添富港股通专注成长混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>11.21</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6.51</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>2</v>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3498</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>010583</t>
+          <t>202801</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>富国蓝筹精选股票（QDII）美元</t>
+          <t>南方全球精选配置(QDII-FOF)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>85.32</t>
+          <t>26.61</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>4</v>
+          <t>30.74</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3193</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>007455</t>
+          <t>009108</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>富国蓝筹精选股票（QDII）人民币</t>
+          <t>富国红利精选混合（QDII）人民币</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>85.32</t>
+          <t>7.52</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>4</v>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2640</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>001605</t>
+          <t>009193</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>富兰克林国海沪港深成长精选股票</t>
+          <t>富国红利精选混合（QDII）美元</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>86.68</t>
+          <t>7.52</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2640</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>008712</t>
+          <t>457001</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>景顺长城品质成长混合</t>
+          <t>国富亚洲机会股票 (QDII)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>90.18</t>
+          <t>8.43</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>6.54</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>4</v>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2352</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -1546,25 +1926,35 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>009098</t>
+          <t>011117</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>景顺长城价值领航两年持有期混合</t>
+          <t>富国沪港深业绩驱动混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>69.93</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
+          <t>73.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1925</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>009108</t>
+          <t>010105</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>富国红利精选混合（QDII）人民币</t>
+          <t>景顺长城消费精选混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>81.34</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>5</v>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>005847</t>
+          <t>006816</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>富国沪港深业绩驱动混合A</t>
+          <t>泰康中证港股通地产指数A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>73.53</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>6</v>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>011117</t>
+          <t>006205</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>富国沪港深业绩驱动混合C</t>
+          <t>汇添富沪港深优势精选定期开放混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>73.53</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>6</v>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>008131</t>
+          <t>011131</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>景顺长城竞争优势混合</t>
+          <t>富国沪港深价值精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>91.98</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>6.62</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>5</v>
+          <t>75.84</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>009193</t>
+          <t>006817</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>富国红利精选混合（QDII）美元</t>
+          <t>泰康中证港股通地产指数C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>81.34</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>5</v>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/01109-华润置地.xlsx
+++ b/数据整理/stocks/港股/01109-华润置地.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2151,4 +2152,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8441</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008131</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1038</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010104</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2621</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008712</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城品质成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0989</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9887</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>66.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9505</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6265</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4005</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1167</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010105</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006816</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006817</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01109-华润置地.xlsx
+++ b/数据整理/stocks/港股/01109-华润置地.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2664,4 +2665,966 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008131</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2312</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>70.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2201</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010104</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3423</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008712</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城品质成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1673</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7886</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>61.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7549</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>377016</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根亚太优势混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6750</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6051</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6011</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5996</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>60.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5740</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5221</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>202801</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方全球精选配置(QDII-FOF)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>31.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3221</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3193</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票 (QDII)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2523</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>75.41</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2163</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010105</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.35</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006816</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.35</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006817</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01109-华润置地.xlsx
+++ b/数据整理/stocks/港股/01109-华润置地.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3606,7 +3607,6 @@
           <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
           <t>81.25</t>
@@ -3622,6 +3622,106 @@
       </c>
       <c r="H25" t="n">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>29.51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.43</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/01109-华润置地.xlsx
+++ b/数据整理/stocks/港股/01109-华润置地.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3635,7 +3636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3646,17 +3647,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3666,14 +3687,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.45</v>
+          <t>008131</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0062</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3682,14 +3725,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.44</v>
+          <t>010104</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1601</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3698,14 +3763,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>28</v>
-      </c>
-      <c r="D4" t="n">
-        <v>29.51</v>
+          <t>008712</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城品质成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0181</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3714,13 +3801,752 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0179</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0179</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>377016</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根亚太优势混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6992</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6727</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6413</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5765</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3123</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>202801</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方全球精选配置(QDII-FOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>30.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2672</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票 (QDII)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2308</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2278</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010105</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006817</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006816</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29.51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>14</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>12.43</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01109-华润置地.xlsx
+++ b/数据整理/stocks/港股/01109-华润置地.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4445,7 +4446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4456,17 +4457,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4476,14 +4497,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.12</v>
+          <t>008131</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3066</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -4492,14 +4535,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.45</v>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2989</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -4508,14 +4573,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.44</v>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>39.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1080</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -4524,14 +4611,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>28</v>
-      </c>
-      <c r="D5" t="n">
-        <v>29.51</v>
+          <t>010104</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8124</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -4540,13 +4649,1262 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7893</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7893</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008712</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城品质成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6657</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6487</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6367</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5977</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5305</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3434</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>202801</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方全球精选配置(QDII-FOF)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>28.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2952</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2515</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票 (QDII)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>77.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1779</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011905</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1734</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0993</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011969</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>57.64</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>920011</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>54.53</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010105</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>920921</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>54.53</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011970</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>57.64</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011906</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000927</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>050015</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007505</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007506</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>28</v>
+      </c>
+      <c r="D6" t="n">
+        <v>29.51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>14</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>12.43</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01109-华润置地.xlsx
+++ b/数据整理/stocks/港股/01109-华润置地.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5787,7 +5788,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5798,17 +5799,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5818,14 +5839,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>34</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.98</v>
+          <t>008131</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2634</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -5834,14 +5877,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.12</v>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6884</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -5850,14 +5915,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.45</v>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6663</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -5866,14 +5953,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.44</v>
+          <t>011081</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6663</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -5882,14 +5991,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>28</v>
-      </c>
-      <c r="D6" t="n">
-        <v>29.51</v>
+          <t>008712</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城品质成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6404</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -5898,13 +6029,1131 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6265</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>377016</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根亚太优势混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4603</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4102</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3251</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2860</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2505</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2457</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2260</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014746</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1603</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011726</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1445</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011905</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1387</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1177</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014747</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011969</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011970</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011906</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000927</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>050015</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007505</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007506</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.44</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>28</v>
+      </c>
+      <c r="D7" t="n">
+        <v>29.51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>14</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>12.43</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01109-华润置地.xlsx
+++ b/数据整理/stocks/港股/01109-华润置地.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>7.73</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D3" t="n">
-        <v>10.98</v>
+        <v>7.73</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>10.12</v>
+        <v>10.98</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>13.45</v>
+        <v>10.12</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>10.44</v>
+        <v>13.45</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>29.51</v>
+        <v>10.44</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>28</v>
+      </c>
+      <c r="D8" t="n">
+        <v>29.51</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>14</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>12.43</v>
       </c>
     </row>
@@ -600,6 +617,1388 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008131</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1693</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0607</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6152</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011081</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5960</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5960</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008712</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5923</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>60.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4484</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012227</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城港股通全球竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3796</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时优势企业灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3338</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3142</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2713</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2227</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>60.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1676</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011905</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信价值启航混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1577</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011726</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014746</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>77.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014747</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>77.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012228</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城港股通全球竞争力混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>74.96</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>920011</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011906</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信价值启航混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011969</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>63.37</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>517090</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>920921</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011970</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>63.37</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>74.85</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>74.85</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>015775</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>景顺长城品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时优势企业灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1831,7 +3230,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3172,7 +4571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3981,7 +5380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4942,7 +6341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5454,7 +6853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6574,7 +7973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/01109-华润置地.xlsx
+++ b/数据整理/stocks/港股/01109-华润置地.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
-        <v>7.8</v>
+        <v>6.09</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>7.73</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
-        <v>10.98</v>
+        <v>7.73</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>10.12</v>
+        <v>10.98</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>13.45</v>
+        <v>10.12</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>10.44</v>
+        <v>13.45</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>29.51</v>
+        <v>10.44</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,618 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>28</v>
+      </c>
+      <c r="D9" t="n">
+        <v>29.51</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>14</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>12.43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008131</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>102.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5856</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010104</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>52.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6680</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008712</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城品质成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6275</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4429</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>70.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9800</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>64.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6437</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5659</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>63.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4125</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>202801</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方全球精选配置(QDII-FOF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>29.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>31.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2692</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方香港优选股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>96.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010105</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>52.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006816</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006817</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1222,1122 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8622</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011081</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8582</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8582</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008131</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8452</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4655</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008712</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4356</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2700</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时优势企业灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2694</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011256</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿光一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2644</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1694</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1282</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012833</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿信一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014746</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011257</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿光一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014747</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>517090</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012834</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿信一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013248</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>交银鸿泰一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010890</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿福六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>28.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013249</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>交银鸿泰一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010891</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿福六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>28.26</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>015775</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景顺长城品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时优势企业灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1998,7 +3719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3230,7 +4951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4571,7 +6292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5380,7 +7101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6341,7 +8062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6853,7 +8574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7971,592 +9692,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008131</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城竞争优势混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>102.13</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>75.58</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.5856</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010104</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城消费精选混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>50.70</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>52.33</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.6680</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008712</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城品质成长混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>34.85</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.08</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.6275</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000979</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城沪港深精选股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>27.02</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>82.45</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.4429</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009098</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>景顺长城价值领航两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>21.73</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>70.46</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.9800</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008850</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>16.59</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>64.30</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.6437</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005504</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>汇添富沪港深大盘价值混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>11.34</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.36</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.5659</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008060</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>景顺长城价值边际灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>13.75</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>63.61</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.4125</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>202801</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>南方全球精选配置(QDII-FOF)</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>29.26</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>31.37</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2692</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>160125</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>南方香港优选股票QDII-LOF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.88</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1399</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006205</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>汇添富沪港深优势精选定期开放混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>96.70</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0344</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>010105</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>景顺长城消费精选混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>52.33</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0293</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>006816</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>泰康中证港股通地产指数A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>6.23</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0156</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>006817</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>泰康中证港股通地产指数C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>6.23</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0118</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>